--- a/Excel_XML_Converter/FORMAT RENDICONTAZIONE.xlsx
+++ b/Excel_XML_Converter/FORMAT RENDICONTAZIONE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali Haider Maqsood\Documents\GitHub\MAW\Excel_XML_Converter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE29D81D-428D-4BDF-BD07-B1BD6890AB60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B47EE-4BB5-4C9E-B965-6A01ACD1FA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2355" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30525" yWindow="4185" windowWidth="15375" windowHeight="7965" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATI ISTANZE" sheetId="1" r:id="rId1"/>
     <sheet name="DATI LAVORATORI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="340">
   <si>
     <t>identificativoPratica</t>
   </si>
@@ -1025,13 +1025,34 @@
   </si>
   <si>
     <t>ANAS</t>
+  </si>
+  <si>
+    <t>02229370348</t>
+  </si>
+  <si>
+    <t>28.93.01</t>
+  </si>
+  <si>
+    <t>G338</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>rew</t>
+  </si>
+  <si>
+    <t>Peppino</t>
+  </si>
+  <si>
+    <t>ED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1050,6 +1071,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1512,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,10 +1651,47 @@
       </c>
       <c r="K3" s="3"/>
     </row>
+    <row r="4" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" display="CANZIAN SRL COSTRUZIONI MECCANICHE " xr:uid="{3A38E0AE-917E-491C-B4E0-C7D63E55675B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1638,8 +1702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8665,6 +8729,56 @@
         <v>19</v>
       </c>
     </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>3</v>
+      </c>
+      <c r="B150">
+        <v>2020</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>330</v>
+      </c>
+      <c r="E150" t="s">
+        <v>331</v>
+      </c>
+      <c r="F150" t="s">
+        <v>332</v>
+      </c>
+      <c r="G150" t="s">
+        <v>86</v>
+      </c>
+      <c r="H150" t="s">
+        <v>43</v>
+      </c>
+      <c r="I150" s="5">
+        <v>1466.59</v>
+      </c>
+      <c r="J150">
+        <v>939.84</v>
+      </c>
+      <c r="K150">
+        <v>488.04</v>
+      </c>
+      <c r="L150">
+        <v>112.55</v>
+      </c>
+      <c r="M150">
+        <v>135.28</v>
+      </c>
+      <c r="N150">
+        <v>176</v>
+      </c>
+      <c r="O150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C153" s="4"/>
+    </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I156" s="4"/>
     </row>
